--- a/Documentation/Voltage Divider Calc.xlsx
+++ b/Documentation/Voltage Divider Calc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>When using internal analog supply regulator, the dropout voltage of the regulator depends on the external transistor used. The output voltage is equal to V AVDD =V BG *(R1+R2)/ R1 (Fig. 1). This voltage should be designed with a minimum of 100mV below VSUP voltage.</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>From Datasheet</t>
+  </si>
+  <si>
+    <t>Calculation for Excitation Voltages</t>
+  </si>
+  <si>
+    <t>Calculation for 6v  Adjustable Regulator</t>
+  </si>
+  <si>
+    <t>Vref</t>
   </si>
 </sst>
 </file>
@@ -85,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +104,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2CF2FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,22 +132,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -135,6 +162,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2CF2FC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -144,6 +176,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>524554</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12172950" y="4657725"/>
+          <a:ext cx="4867954" cy="724001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>315637</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8039100" y="5715000"/>
+          <a:ext cx="9402487" cy="1400370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,220 +522,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:AB20"/>
+  <dimension ref="A2:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="9.140625" style="5"/>
-    <col min="11" max="11" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="5"/>
+    <col min="1" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="3"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="5" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="4:28" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="4:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <f>F8*(G8+H8)/G8</f>
         <v>4.6875</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>1.25</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>12000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>33000</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>5</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <f>J8-0.1</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <f>F9*(G9+H9)/G9</f>
         <v>3.1730769230769229</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>1.25</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>13000</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>20000</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>3.3</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <f>J9-0.1</f>
         <v>3.1999999999999997</v>
       </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
     </row>
     <row r="10" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
     </row>
     <row r="11" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
     </row>
     <row r="12" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
     </row>
     <row r="13" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
     </row>
     <row r="15" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
     </row>
     <row r="16" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-    </row>
-    <row r="17" spans="22:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-    </row>
-    <row r="18" spans="22:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-    </row>
-    <row r="19" spans="22:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-    </row>
-    <row r="20" spans="22:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+    </row>
+    <row r="17" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+    </row>
+    <row r="20" spans="4:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+    </row>
+    <row r="24" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D30" s="8">
+        <v>6</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1.23</v>
+      </c>
+      <c r="G30" s="8">
+        <v>860</v>
+      </c>
+      <c r="H30" s="7">
+        <f>G30*((D30/F30)-1)</f>
+        <v>3335.1219512195121</v>
+      </c>
+    </row>
+    <row r="32" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D32" s="7">
+        <f>F30*(1+(H32/G32))</f>
+        <v>5.9497674418604642</v>
+      </c>
+      <c r="G32" s="8">
+        <v>860</v>
+      </c>
+      <c r="H32" s="8">
+        <v>3300</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -631,5 +795,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>